--- a/ExcelOut/art32.xlsx
+++ b/ExcelOut/art32.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>itemid</t>
   </si>
@@ -36,6 +36,201 @@
   </si>
   <si>
     <t>现URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	大族激光影像设备 HANS30</t>
+  </si>
+  <si>
+    <t>激光学院</t>
+  </si>
+  <si>
+    <t>学术论文</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/</t>
+  </si>
+  <si>
+    <t>201011/27/193.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/193.html</t>
+  </si>
+  <si>
+    <t>201011/27/194.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/194.html</t>
+  </si>
+  <si>
+    <t>大族激光影像设备 HANS30</t>
+  </si>
+  <si>
+    <t>201011/27/195.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/195.html</t>
+  </si>
+  <si>
+    <t>201011/27/196.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/196.html</t>
+  </si>
+  <si>
+    <t>不同种类激光在医疗中具体应用分析</t>
+  </si>
+  <si>
+    <t>激光院系</t>
+  </si>
+  <si>
+    <t>201011/27/254.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/254.html</t>
+  </si>
+  <si>
+    <t>201011/27/255.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/255.html</t>
+  </si>
+  <si>
+    <t>201011/27/256.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/256.html</t>
+  </si>
+  <si>
+    <t>201011/27/257.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/257.html</t>
+  </si>
+  <si>
+    <t>数控激光管切技术解析</t>
+  </si>
+  <si>
+    <t>201011/27/262.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/262.html</t>
+  </si>
+  <si>
+    <t>201011/27/263.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/263.html</t>
+  </si>
+  <si>
+    <t>201011/27/264.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/264.html</t>
+  </si>
+  <si>
+    <t>激光焊接在船舶制造中的应用前景</t>
+  </si>
+  <si>
+    <t>201011/27/306.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/306.html</t>
+  </si>
+  <si>
+    <t>201011/27/307.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/307.html</t>
+  </si>
+  <si>
+    <t>201011/27/308.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/308.html</t>
+  </si>
+  <si>
+    <t>2.8fs深紫外脉冲成为光谱学家的研究利器</t>
+  </si>
+  <si>
+    <t>201011/27/312.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/312.html</t>
+  </si>
+  <si>
+    <t>201011/27/313.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/313.html</t>
+  </si>
+  <si>
+    <t>201011/27/314.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/314.html</t>
+  </si>
+  <si>
+    <t>201011/27/315.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/315.html</t>
+  </si>
+  <si>
+    <t>Profile3015 激光切割机  操作手册</t>
+  </si>
+  <si>
+    <t>操作说明</t>
+  </si>
+  <si>
+    <t>201011/27/555.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/555.html</t>
+  </si>
+  <si>
+    <t>201011/27/556.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/556.html</t>
+  </si>
+  <si>
+    <t>201011/27/557.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/557.html</t>
+  </si>
+  <si>
+    <t>201011/27/558.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/558.html</t>
+  </si>
+  <si>
+    <t>201011/27/559.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/559.html</t>
+  </si>
+  <si>
+    <t>201011/27/560.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/560.html</t>
+  </si>
+  <si>
+    <t>201011/27/561.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/561.html</t>
+  </si>
+  <si>
+    <t>Trumpf.Tops100操作手册</t>
+  </si>
+  <si>
+    <t>201011/27/562.html</t>
+  </si>
+  <si>
+    <t>http://www.laser123.com/laserxueyuan/201011/27/562.html</t>
   </si>
 </sst>
 </file>
@@ -374,7 +569,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,6 +598,604 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>254</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>255</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>262</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>263</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>264</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>306</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>307</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>308</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>313</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>314</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>315</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>555</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>556</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>557</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>558</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>559</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>560</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>561</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>562</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
